--- a/biology/Zoologie/Gorgorhynchinae/Gorgorhynchinae.xlsx
+++ b/biology/Zoologie/Gorgorhynchinae/Gorgorhynchinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gorgorhynchinae sont une sous-famille d'acanthocéphales. Les acanthocéphales sont des vers à tête épineuse qui parasitent des vertébrés. Ils sont caractérisés par un proboscis rétractable portant des épines courbées en arrière qui leur permet de s'accrocher à la paroi intestinale de leurs hôtes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 septembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 septembre 2019) :
 genre Australorhynchus Lebedev, 1967
 genre Cleaveius Subrahmanian, 1927
 genre Gorgorhynchus Chandler, 1934
@@ -549,7 +563,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Harley J. Van Cleave et David R. Lincicome, « A Reconsideration of the Acanthocephalan Family Rhadinorhynchidae », Journal of Parasitology, Chicago, American Society of Parasitologists (d), vol. 26, no 1,‎ février 1940, p. 75 (ISSN 0022-3395 et 1937-2345, OCLC 1606759, DOI 10.2307/3272266, JSTOR 3272266, lire en ligne)</t>
         </is>
